--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value786.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value786.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.233894423100737</v>
+        <v>1.789879322052002</v>
       </c>
       <c r="B1">
-        <v>3.675649413033304</v>
+        <v>4.213298797607422</v>
       </c>
       <c r="C1">
-        <v>3.110756670997989</v>
+        <v>1.82880175113678</v>
       </c>
       <c r="D1">
-        <v>2.153123994578765</v>
+        <v>0.8784728646278381</v>
       </c>
       <c r="E1">
-        <v>1.215597861802666</v>
+        <v>0.4740420579910278</v>
       </c>
     </row>
   </sheetData>
